--- a/data/trans_dic/P45C_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,76</t>
+          <t>0,52; 1,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,95</t>
+          <t>0,59; 1,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,86</t>
+          <t>0,39; 1,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,74</t>
+          <t>0,6; 1,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,23</t>
+          <t>0,9; 2,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,6</t>
+          <t>0,45; 1,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,5</t>
+          <t>0,69; 1,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,88</t>
+          <t>0,91; 1,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,44</t>
+          <t>0,51; 1,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,92</t>
+          <t>1,5; 3,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,07</t>
+          <t>0,9; 2,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,39</t>
+          <t>0,57; 1,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,91</t>
+          <t>1,43; 2,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,18</t>
+          <t>0,98; 2,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,86</t>
+          <t>0,8; 1,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,6</t>
+          <t>1,6; 2,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,92</t>
+          <t>1,08; 1,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,47</t>
+          <t>0,78; 1,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,6</t>
+          <t>0,82; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,52</t>
+          <t>0,46; 2,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,89</t>
+          <t>1,06; 3,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,4</t>
+          <t>1,12; 4,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,32</t>
+          <t>0,38; 2,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,05</t>
+          <t>1,1; 3,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,83</t>
+          <t>0,99; 2,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,85</t>
+          <t>0,51; 1,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,21</t>
+          <t>1,27; 2,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,75</t>
+          <t>0,94; 1,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,29</t>
+          <t>0,63; 1,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,17</t>
+          <t>1,26; 2,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,07</t>
+          <t>1,2; 2,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,49</t>
+          <t>0,78; 1,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,07</t>
+          <t>1,38; 2,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,79</t>
+          <t>1,21; 1,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,28</t>
+          <t>0,77; 1,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P45C_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,83</t>
+          <t>0,47; 1,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,98</t>
+          <t>0,6; 2,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,85</t>
+          <t>0,39; 1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,99</t>
+          <t>1,26; 3,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,7</t>
+          <t>0,6; 1,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,26</t>
+          <t>0,91; 2,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,72</t>
+          <t>0,4; 1,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,79</t>
+          <t>0,68; 1,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,55</t>
+          <t>0,66; 1,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,84</t>
+          <t>0,89; 1,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,44</t>
+          <t>0,52; 1,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,38</t>
+          <t>1,04; 2,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,0</t>
+          <t>1,46; 2,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,09</t>
+          <t>0,96; 2,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,44</t>
+          <t>0,57; 1,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,35</t>
+          <t>1,03; 2,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,9</t>
+          <t>1,39; 2,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,13</t>
+          <t>0,99; 2,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,83</t>
+          <t>0,8; 1,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,08</t>
+          <t>0,98; 2,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,61</t>
+          <t>1,64; 2,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,92</t>
+          <t>1,11; 1,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,46</t>
+          <t>0,78; 1,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,99</t>
+          <t>1,12; 2,01</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,35</t>
+          <t>0,8; 3,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,54</t>
+          <t>0,44; 2,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,37</t>
+          <t>0,18; 2,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,52</t>
+          <t>0,78; 3,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,81</t>
+          <t>1,04; 3,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,21</t>
+          <t>1,13; 4,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,37</t>
+          <t>0,37; 2,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,14</t>
+          <t>1,07; 3,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,14</t>
+          <t>1,14; 2,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,8</t>
+          <t>1,01; 2,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,88</t>
+          <t>0,46; 1,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,82</t>
+          <t>1,16; 2,82</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,24</t>
+          <t>1,27; 2,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,77</t>
+          <t>0,92; 1,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,35</t>
+          <t>0,6; 1,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,35</t>
+          <t>1,25; 2,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,19</t>
+          <t>1,26; 2,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,07</t>
+          <t>1,22; 2,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,51</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,9</t>
+          <t>1,16; 1,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,04</t>
+          <t>1,39; 2,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,77</t>
+          <t>1,16; 1,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,29</t>
+          <t>0,78; 1,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,93</t>
+          <t>1,31; 1,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,94</t>
+          <t>1,23; 3,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,81</t>
+          <t>0,7; 1,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,31</t>
+          <t>1,05; 2,38</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,19 +831,19 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>1,45%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
           <t>1,08%</t>
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,35</t>
+          <t>0,86; 2,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,07</t>
+          <t>0,87; 1,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,01</t>
+          <t>0,99; 1,86</t>
         </is>
       </c>
     </row>
@@ -951,39 +951,39 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>1,76%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,09%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,95%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
           <t>0,97%</t>
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,85%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,54</t>
+          <t>0,8; 3,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,17</t>
+          <t>1,06; 3,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,82</t>
+          <t>1,16; 2,88</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,31</t>
+          <t>1,16; 2,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,93</t>
+          <t>1,09; 1,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,94</t>
+          <t>1,2; 1,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,76</t>
+          <t>0,53; 1,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,0</t>
+          <t>0,52; 1,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,84</t>
+          <t>0,39; 1,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,89</t>
+          <t>1,21; 4,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,74</t>
+          <t>0,57; 1,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,24</t>
+          <t>0,88; 2,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,6</t>
+          <t>0,37; 1,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,89</t>
+          <t>0,65; 1,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,47</t>
+          <t>0,66; 1,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,83</t>
+          <t>0,87; 1,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,47</t>
+          <t>0,55; 1,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,38</t>
+          <t>1,03; 2,41</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,9</t>
+          <t>1,43; 2,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,08</t>
+          <t>0,96; 2,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,48</t>
+          <t>0,57; 1,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,2</t>
+          <t>0,83; 2,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,83</t>
+          <t>1,38; 2,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,15</t>
+          <t>0,97; 2,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,82</t>
+          <t>0,79; 1,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 1,93</t>
+          <t>0,87; 1,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,63</t>
+          <t>1,59; 2,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,89</t>
+          <t>1,12; 1,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,44</t>
+          <t>0,78; 1,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,86</t>
+          <t>1,0; 1,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,45</t>
+          <t>0,83; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,53</t>
+          <t>0,43; 2,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,36</t>
+          <t>0,18; 2,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,97</t>
+          <t>0,82; 3,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,85</t>
+          <t>1,04; 3,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,27</t>
+          <t>1,15; 4,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,17</t>
+          <t>0,37; 2,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,13</t>
+          <t>1,09; 3,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,96</t>
+          <t>1,2; 3,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,8</t>
+          <t>1,01; 2,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,85</t>
+          <t>0,45; 1,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,88</t>
+          <t>1,22; 3,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,22</t>
+          <t>1,26; 2,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,73</t>
+          <t>0,95; 1,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,3</t>
+          <t>0,61; 1,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,22</t>
+          <t>1,14; 2,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,14</t>
+          <t>1,25; 2,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,11</t>
+          <t>1,22; 2,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,57</t>
+          <t>0,78; 1,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,88</t>
+          <t>1,05; 1,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,05</t>
+          <t>1,4; 2,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,8</t>
+          <t>1,18; 1,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,28</t>
+          <t>0,81; 1,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,88</t>
+          <t>1,19; 1,83</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que han sufrido a lo largo de este ultimo año alguna quemadura solar con ampollas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10162</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10719</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7142</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11821</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13741</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19600</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8115</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8686</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23903</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30320</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15258</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20507</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5474; 19522</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4987; 18988</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2912; 14264</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6204; 21076</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7518; 22333</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11584; 30618</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3651; 15918</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4928; 14104</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15398; 35599</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19982; 43503</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9437; 25648</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13130; 30627</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35361</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27813</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19057</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31851</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32215</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25799</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24445</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30422</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>67576</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>53612</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>43502</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>62273</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24223; 50135</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18648; 40446</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11702; 30118</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19057; 49938</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21828; 45310</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16848; 39166</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15535; 36364</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19421; 43385</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>52053; 86800</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>41336; 71408</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>31641; 57556</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>45348; 83815</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9618</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5479</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4604</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11616</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10395</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10861</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5903</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12588</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20013</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16340</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10507</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24204</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4577; 19575</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2055; 11798</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>978; 12652</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5280; 23576</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4930; 18085</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5233; 19828</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2018; 12701</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7218; 20845</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12283; 32463</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9396; 26943</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4905; 19493</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16002; 39507</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>55141</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>44012</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30803</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>55289</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>56351</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>56260</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38463</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>51696</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>111492</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>100272</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>69266</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>106985</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>41158; 71594</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32127; 58062</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20421; 44350</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>39158; 75917</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>42023; 71951</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>42943; 72738</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27428; 52662</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38469; 67970</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>92764; 135990</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>81717; 122358</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>55475; 87740</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>84320; 130206</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>